--- a/ValueSet-covid-vaccination-contraindications.xlsx
+++ b/ValueSet-covid-vaccination-contraindications.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>covid-vaccination-contraindications</t>
+    <t>Covid Vaccination Contraindications</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-14T14:19:42+00:00</t>
+    <t>2021-11-25T00:25:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
